--- a/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
+++ b/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sapphirecarter/Documents/GitHub/italian_3200_project/documentation/booked_hours_individual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{17D82715-F380-9748-80AA-B80FCA425B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEE8166-D0FB-A743-B177-9BFA7C7DEA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11900" yWindow="680" windowWidth="17720" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="11900" yWindow="680" windowWidth="17720" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>Wk</t>
   </si>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="10"/>
@@ -370,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -422,6 +422,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -442,23 +450,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -867,11 +864,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
@@ -889,36 +886,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="71" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -938,7 +935,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="21"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11">
@@ -1903,14 +1900,14 @@
       <c r="A34" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="22" t="s">
+      <c r="C34" s="18"/>
+      <c r="D34" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="23"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="14" t="s">
         <v>5</v>
       </c>
@@ -1963,7 +1960,7 @@
       <c r="E36" s="5">
         <v>0.40972222222222227</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G36" s="6">
@@ -1995,7 +1992,7 @@
       <c r="E37" s="5">
         <v>0.64583333333333337</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G37" s="6">
@@ -2027,7 +2024,7 @@
       <c r="E38" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G38" s="6">
@@ -2059,7 +2056,7 @@
       <c r="E39" s="5">
         <v>0.46875</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="8" t="s">
         <v>33</v>
       </c>
       <c r="G39" s="6">
@@ -2091,7 +2088,7 @@
       <c r="E40" s="5">
         <v>0.5</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G40" s="6">
@@ -2123,7 +2120,7 @@
       <c r="E41" s="5">
         <v>0.9375</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G41" s="6">
@@ -2155,7 +2152,7 @@
       <c r="E42" s="5">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G42" s="6">
@@ -2187,7 +2184,7 @@
       <c r="E43" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G43" s="6">
@@ -2219,7 +2216,7 @@
       <c r="E44" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G44" s="6">
@@ -2251,7 +2248,7 @@
       <c r="E45" s="5">
         <v>0.5</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="8" t="s">
         <v>36</v>
       </c>
       <c r="G45" s="6">
@@ -2283,7 +2280,7 @@
       <c r="E46" s="5">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G46" s="6">
@@ -2315,7 +2312,7 @@
       <c r="E47" s="5">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F47" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G47" s="6">
@@ -2347,7 +2344,7 @@
       <c r="E48" s="5">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G48" s="6">
@@ -2379,7 +2376,7 @@
       <c r="E49" s="5">
         <v>0.5625</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="F49" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G49" s="6">
@@ -2411,7 +2408,7 @@
       <c r="E50" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F50" s="26" t="s">
+      <c r="F50" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G50" s="6">
@@ -2443,7 +2440,7 @@
       <c r="E51" s="5">
         <v>0.72222222222222221</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F51" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G51" s="6">
@@ -2460,21 +2457,35 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
-      <c r="G52" s="6" t="str">
+      <c r="A52" s="1">
+        <v>8</v>
+      </c>
+      <c r="B52" s="4">
+        <v>43723</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="D52" s="4">
+        <v>43723</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="6">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H52" s="1" t="str">
+        <v>1.2499999998835847</v>
+      </c>
+      <c r="H52" s="1">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>71.583333333022892</v>
       </c>
       <c r="I52" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.2499999998835847</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2736,14 +2747,14 @@
       <c r="A68" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="22" t="s">
+      <c r="C68" s="18"/>
+      <c r="D68" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="23"/>
+      <c r="E68" s="18"/>
       <c r="F68" s="14" t="s">
         <v>5</v>
       </c>
@@ -3232,14 +3243,14 @@
       <c r="A102" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="23"/>
-      <c r="D102" s="22" t="s">
+      <c r="C102" s="18"/>
+      <c r="D102" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="23"/>
+      <c r="E102" s="18"/>
       <c r="F102" s="14" t="s">
         <v>5</v>
       </c>
@@ -3737,6 +3748,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="H102:H103"/>
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="A34:A35"/>
@@ -3753,15 +3773,6 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3771,7 +3782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -3786,7 +3797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>

--- a/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
+++ b/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sapphirecarter/Documents/GitHub/italian_3200_project/documentation/booked_hours_individual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEE8166-D0FB-A743-B177-9BFA7C7DEA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6D3066-2B48-B248-9F90-072B6B282187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11900" yWindow="680" windowWidth="17720" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
   <si>
     <t>Wk</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Writing models for backend</t>
+  </si>
+  <si>
+    <t>Results interface</t>
   </si>
 </sst>
 </file>
@@ -422,14 +425,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -448,6 +443,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -868,7 +871,7 @@
   <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
@@ -886,36 +889,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="71" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -935,7 +938,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="23"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11">
@@ -1900,14 +1903,14 @@
       <c r="A34" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="17" t="s">
+      <c r="C34" s="23"/>
+      <c r="D34" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="18"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="14" t="s">
         <v>5</v>
       </c>
@@ -2489,21 +2492,35 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="5"/>
-      <c r="G53" s="6" t="str">
+      <c r="A53" s="1">
+        <v>8</v>
+      </c>
+      <c r="B53" s="4">
+        <v>43723</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D53" s="4">
+        <v>43723</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="6">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H53" s="1" t="str">
+        <v>4.7500000001164153</v>
+      </c>
+      <c r="H53" s="1">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>76.333333333139308</v>
       </c>
       <c r="I53" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.7500000001164153</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2747,14 +2764,14 @@
       <c r="A68" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="17" t="s">
+      <c r="C68" s="23"/>
+      <c r="D68" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="18"/>
+      <c r="E68" s="23"/>
       <c r="F68" s="14" t="s">
         <v>5</v>
       </c>
@@ -3243,14 +3260,14 @@
       <c r="A102" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="17" t="s">
+      <c r="B102" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="18"/>
-      <c r="D102" s="17" t="s">
+      <c r="C102" s="23"/>
+      <c r="D102" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="18"/>
+      <c r="E102" s="23"/>
       <c r="F102" s="14" t="s">
         <v>5</v>
       </c>
@@ -3748,15 +3765,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="H102:H103"/>
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="A34:A35"/>
@@ -3773,6 +3781,15 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
+++ b/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sapphirecarter/Documents/GitHub/italian_3200_project/documentation/booked_hours_individual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6D3066-2B48-B248-9F90-072B6B282187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C93436-C986-0D45-A9D3-9C65342DC14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11900" yWindow="680" windowWidth="17720" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
   <si>
     <t>Wk</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>Results interface</t>
+  </si>
+  <si>
+    <t>Client demo and retrospective</t>
+  </si>
+  <si>
+    <t>Team Retrospective</t>
   </si>
 </sst>
 </file>
@@ -425,6 +431,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -443,14 +457,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -871,7 +877,7 @@
   <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
@@ -889,36 +895,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="71" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -938,7 +944,7 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="21"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11">
@@ -1903,14 +1909,14 @@
       <c r="A34" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="22" t="s">
+      <c r="C34" s="18"/>
+      <c r="D34" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="23"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="14" t="s">
         <v>5</v>
       </c>
@@ -2524,57 +2530,99 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="5"/>
-      <c r="G54" s="6" t="str">
+      <c r="A54" s="1">
+        <v>8</v>
+      </c>
+      <c r="B54" s="4">
+        <v>43725</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="D54" s="4">
+        <v>43725</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="6">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H54" s="1" t="str">
+        <v>0.99999999994179234</v>
+      </c>
+      <c r="H54" s="1">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>77.3333333330811</v>
       </c>
       <c r="I54" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.99999999994179234</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="5"/>
-      <c r="G55" s="6" t="str">
+      <c r="A55" s="1">
+        <v>8</v>
+      </c>
+      <c r="B55" s="4">
+        <v>43725</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D55" s="4">
+        <v>43725</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" s="6">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H55" s="1" t="str">
+        <v>0.50000000005820766</v>
+      </c>
+      <c r="H55" s="1">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>77.833333333139308</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.50000000005820766</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="5"/>
-      <c r="G56" s="6" t="str">
+      <c r="A56" s="1">
+        <v>8</v>
+      </c>
+      <c r="B56" s="4">
+        <v>43725</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="4">
+        <v>43725</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G56" s="6">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H56" s="1" t="str">
+        <v>0.99999999994179234</v>
+      </c>
+      <c r="H56" s="1">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>78.8333333330811</v>
       </c>
       <c r="I56" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.99999999994179234</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2764,14 +2812,14 @@
       <c r="A68" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="22" t="s">
+      <c r="C68" s="18"/>
+      <c r="D68" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="23"/>
+      <c r="E68" s="18"/>
       <c r="F68" s="14" t="s">
         <v>5</v>
       </c>
@@ -3260,14 +3308,14 @@
       <c r="A102" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="23"/>
-      <c r="D102" s="22" t="s">
+      <c r="C102" s="18"/>
+      <c r="D102" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="23"/>
+      <c r="E102" s="18"/>
       <c r="F102" s="14" t="s">
         <v>5</v>
       </c>
@@ -3765,6 +3813,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="H102:H103"/>
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="A34:A35"/>
@@ -3781,15 +3838,6 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
+++ b/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sapphirecarter/Documents/GitHub/italian_3200_project/documentation/booked_hours_individual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C93436-C986-0D45-A9D3-9C65342DC14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415138EC-B6F9-A24C-B7C3-8041A22899AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11900" yWindow="680" windowWidth="17720" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7040" yWindow="680" windowWidth="22580" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
   <si>
     <t>Wk</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>Team Retrospective</t>
+  </si>
+  <si>
+    <t>Make UI clearer when recording</t>
+  </si>
+  <si>
+    <t>Add routing to quiz and instructions/end page</t>
   </si>
 </sst>
 </file>
@@ -379,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -419,6 +425,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -429,14 +439,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -457,6 +459,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -876,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
@@ -895,41 +905,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="71" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="13" customHeight="1">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -942,9 +952,9 @@
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="23"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11">
@@ -1906,24 +1916,24 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="16">
-      <c r="A34" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="17" t="s">
+      <c r="C34" s="24"/>
+      <c r="D34" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="14" t="s">
+      <c r="E34" s="24"/>
+      <c r="F34" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="15" t="s">
         <v>6</v>
       </c>
       <c r="I34" s="1" t="e">
@@ -1932,7 +1942,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="16">
-      <c r="A35" s="16"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
@@ -1945,9 +1955,9 @@
       <c r="E35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
       <c r="I35" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
@@ -2626,39 +2636,67 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="5"/>
-      <c r="G57" s="6" t="str">
+      <c r="A57" s="1">
+        <v>8</v>
+      </c>
+      <c r="B57" s="4">
+        <v>43727</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D57" s="4">
+        <v>43727</v>
+      </c>
+      <c r="E57" s="14">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G57" s="6">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H57" s="1" t="str">
+        <v>0.50000000005820766</v>
+      </c>
+      <c r="H57" s="1">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>79.333333333139308</v>
       </c>
       <c r="I57" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.50000000005820766</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="5"/>
-      <c r="G58" s="6" t="str">
+      <c r="A58" s="1">
+        <v>8</v>
+      </c>
+      <c r="B58" s="4">
+        <v>43727</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="D58" s="4">
+        <v>43727</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="6">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H58" s="1" t="str">
+        <v>2.0000000000582077</v>
+      </c>
+      <c r="H58" s="1">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>81.333333333197515</v>
       </c>
       <c r="I58" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.0000000000582077</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2809,24 +2847,24 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="16">
-      <c r="A68" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="17" t="s">
+      <c r="A68" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="17" t="s">
+      <c r="C68" s="24"/>
+      <c r="D68" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="18"/>
-      <c r="F68" s="14" t="s">
+      <c r="E68" s="24"/>
+      <c r="F68" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H68" s="14" t="s">
+      <c r="H68" s="15" t="s">
         <v>6</v>
       </c>
       <c r="I68" s="1" t="e">
@@ -2835,7 +2873,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="16">
-      <c r="A69" s="16"/>
+      <c r="A69" s="17"/>
       <c r="B69" s="2" t="s">
         <v>2</v>
       </c>
@@ -2848,9 +2886,9 @@
       <c r="E69" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
       <c r="I69" s="1" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -3305,24 +3343,24 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="16">
-      <c r="A102" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="17" t="s">
+      <c r="A102" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="18"/>
-      <c r="D102" s="17" t="s">
+      <c r="C102" s="24"/>
+      <c r="D102" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="18"/>
-      <c r="F102" s="14" t="s">
+      <c r="E102" s="24"/>
+      <c r="F102" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="14" t="s">
+      <c r="G102" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H102" s="14" t="s">
+      <c r="H102" s="15" t="s">
         <v>6</v>
       </c>
       <c r="I102" s="1" t="e">
@@ -3331,7 +3369,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="16">
-      <c r="A103" s="16"/>
+      <c r="A103" s="17"/>
       <c r="B103" s="2" t="s">
         <v>2</v>
       </c>
@@ -3344,9 +3382,9 @@
       <c r="E103" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
       <c r="I103" s="1" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
@@ -3813,15 +3851,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="H102:H103"/>
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="A34:A35"/>
@@ -3838,6 +3867,15 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
+++ b/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sapphirecarter/Documents/GitHub/italian_3200_project/documentation/booked_hours_individual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415138EC-B6F9-A24C-B7C3-8041A22899AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF166634-7D2E-EA40-ACE7-59B563E6A891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7040" yWindow="680" windowWidth="22580" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
   <si>
     <t>Wk</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Add routing to quiz and instructions/end page</t>
+  </si>
+  <si>
+    <t>Update UI elements with client suggestions</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -441,6 +444,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -461,14 +472,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -476,6 +479,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,7 +899,7 @@
   <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
@@ -905,36 +917,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="71" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -954,7 +966,7 @@
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="17"/>
-      <c r="H3" s="22"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11">
@@ -1919,14 +1931,14 @@
       <c r="A34" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="23" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="24"/>
+      <c r="E34" s="19"/>
       <c r="F34" s="15" t="s">
         <v>5</v>
       </c>
@@ -2700,21 +2712,33 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="5"/>
-      <c r="G59" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H59" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+      <c r="A59" s="11">
+        <v>8</v>
+      </c>
+      <c r="B59" s="28">
+        <v>43728</v>
+      </c>
+      <c r="C59" s="27">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D59" s="28">
+        <v>43728</v>
+      </c>
+      <c r="E59" s="27">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G59" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="H59" s="11">
+        <v>81.333333330000002</v>
       </c>
       <c r="I59" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.9999999998835847</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2850,14 +2874,14 @@
       <c r="A68" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="23" t="s">
+      <c r="C68" s="19"/>
+      <c r="D68" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="24"/>
+      <c r="E68" s="19"/>
       <c r="F68" s="15" t="s">
         <v>5</v>
       </c>
@@ -3346,14 +3370,14 @@
       <c r="A102" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="23" t="s">
+      <c r="B102" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="24"/>
-      <c r="D102" s="23" t="s">
+      <c r="C102" s="19"/>
+      <c r="D102" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="24"/>
+      <c r="E102" s="19"/>
       <c r="F102" s="15" t="s">
         <v>5</v>
       </c>
@@ -3851,6 +3875,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="H102:H103"/>
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="A34:A35"/>
@@ -3867,15 +3900,6 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
+++ b/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommcadam/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sapphirecarter/Documents/GitHub/italian_3200_project/documentation/booked_hours_individual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6072AF20-E678-4E4A-B61E-2FA57E748F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3AACFC-8461-2F41-ADB2-EB06FFB3D761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6220" yWindow="680" windowWidth="22580" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t>Wk</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Team Meeting &amp; Collaborative Coding (Backend)</t>
+  </si>
+  <si>
+    <t>Write questions hook</t>
   </si>
 </sst>
 </file>
@@ -454,14 +457,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -480,6 +475,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -900,7 +903,7 @@
   <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
@@ -918,36 +921,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="71" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="24" t="s">
         <v>6</v>
       </c>
     </row>
@@ -967,7 +970,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="20"/>
-      <c r="H3" s="27"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11">
@@ -1932,14 +1935,14 @@
       <c r="A34" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="21" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="22"/>
+      <c r="E34" s="27"/>
       <c r="F34" s="18" t="s">
         <v>5</v>
       </c>
@@ -2775,21 +2778,35 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="5"/>
-      <c r="G61" s="6" t="str">
+      <c r="A61" s="1">
+        <v>10</v>
+      </c>
+      <c r="B61" s="4">
+        <v>43739</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D61" s="4">
+        <v>43739</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G61" s="6">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H61" s="1" t="str">
+        <v>0.50000000005820766</v>
+      </c>
+      <c r="H61" s="1">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>83.833333329941794</v>
       </c>
       <c r="I61" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.50000000005820766</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2889,14 +2906,14 @@
       <c r="A68" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="21" t="s">
+      <c r="C68" s="27"/>
+      <c r="D68" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="22"/>
+      <c r="E68" s="27"/>
       <c r="F68" s="18" t="s">
         <v>5</v>
       </c>
@@ -3385,14 +3402,14 @@
       <c r="A102" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="22"/>
-      <c r="D102" s="21" t="s">
+      <c r="C102" s="27"/>
+      <c r="D102" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="22"/>
+      <c r="E102" s="27"/>
       <c r="F102" s="18" t="s">
         <v>5</v>
       </c>
@@ -3890,15 +3907,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="H102:H103"/>
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="A34:A35"/>
@@ -3915,6 +3923,15 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
+++ b/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sapphirecarter/Documents/GitHub/italian_3200_project/documentation/booked_hours_individual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3AACFC-8461-2F41-ADB2-EB06FFB3D761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FB578F-3A07-1442-97ED-B08FB1515ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6220" yWindow="680" windowWidth="22580" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <t>Wk</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>Write questions hook</t>
+  </si>
+  <si>
+    <t>Review pull request</t>
+  </si>
+  <si>
+    <t>Deployment research + setting up vercel</t>
   </si>
 </sst>
 </file>
@@ -903,7 +909,7 @@
   <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
@@ -2810,36 +2816,67 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="5"/>
-      <c r="G62" s="6" t="str">
+      <c r="A62" s="1">
+        <v>10</v>
+      </c>
+      <c r="B62" s="4">
+        <v>43741</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D62" s="4">
+        <v>43741</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G62" s="6">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H62" s="1" t="str">
+        <v>0.25000000011641532</v>
+      </c>
+      <c r="H62" s="1">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>84.08333333005821</v>
       </c>
       <c r="I62" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.25000000011641532</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="B63" s="4"/>
-      <c r="G63" s="6" t="str">
+      <c r="A63" s="1">
+        <v>10</v>
+      </c>
+      <c r="B63" s="4">
+        <v>43742</v>
+      </c>
+      <c r="C63" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D63" s="7">
+        <v>43742</v>
+      </c>
+      <c r="E63" s="10">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G63" s="6">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H63" s="1" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="H63" s="1">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>84.83333333005821</v>
       </c>
       <c r="I63" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="64" spans="1:9">

--- a/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
+++ b/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sapphirecarter/Documents/GitHub/italian_3200_project/documentation/booked_hours_individual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FB578F-3A07-1442-97ED-B08FB1515ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9DFE7C-715D-5649-8DE5-1AEE572E2F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6220" yWindow="680" windowWidth="22580" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>Wk</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Deployment research + setting up vercel</t>
+  </si>
+  <si>
+    <t>Researching vercel errors/fixing vercel</t>
   </si>
 </sst>
 </file>
@@ -909,7 +912,7 @@
   <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
@@ -2880,18 +2883,35 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="B64" s="4"/>
-      <c r="G64" s="6" t="str">
+      <c r="A64" s="1">
+        <v>10</v>
+      </c>
+      <c r="B64" s="4">
+        <v>43742</v>
+      </c>
+      <c r="C64" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D64" s="7">
+        <v>43742</v>
+      </c>
+      <c r="E64" s="10">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G64" s="6">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H64" s="1" t="str">
+        <v>1.7499999999417923</v>
+      </c>
+      <c r="H64" s="1">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>86.583333330000002</v>
       </c>
       <c r="I64" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.7499999999417923</v>
       </c>
     </row>
     <row r="65" spans="1:9">

--- a/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
+++ b/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sapphirecarter/Documents/GitHub/italian_3200_project/documentation/booked_hours_individual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9DFE7C-715D-5649-8DE5-1AEE572E2F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B4F636-2C49-A642-A444-ED80C6DE0A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6220" yWindow="680" windowWidth="22580" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>Wk</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>Researching vercel errors/fixing vercel</t>
+  </si>
+  <si>
+    <t>Debugging deployment</t>
+  </si>
+  <si>
+    <t>Team meeting</t>
   </si>
 </sst>
 </file>
@@ -466,6 +472,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -484,14 +498,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -911,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
@@ -930,36 +936,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="71" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -979,7 +985,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="20"/>
-      <c r="H3" s="25"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11">
@@ -1944,14 +1950,14 @@
       <c r="A34" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="26" t="s">
+      <c r="C34" s="22"/>
+      <c r="D34" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="27"/>
+      <c r="E34" s="22"/>
       <c r="F34" s="18" t="s">
         <v>5</v>
       </c>
@@ -2915,33 +2921,67 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="B65" s="4"/>
-      <c r="G65" s="6" t="str">
+      <c r="A65" s="1">
+        <v>10</v>
+      </c>
+      <c r="B65" s="4">
+        <v>43742</v>
+      </c>
+      <c r="C65" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D65" s="7">
+        <v>43742</v>
+      </c>
+      <c r="E65" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G65" s="6">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H65" s="1" t="str">
+        <v>1.9999999998835847</v>
+      </c>
+      <c r="H65" s="1">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>88.583333329883587</v>
       </c>
       <c r="I65" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.9999999998835847</v>
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="B66" s="4"/>
-      <c r="G66" s="6" t="str">
+      <c r="A66" s="1">
+        <v>10</v>
+      </c>
+      <c r="B66" s="7">
+        <v>43742</v>
+      </c>
+      <c r="C66" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D66" s="7">
+        <v>43742</v>
+      </c>
+      <c r="E66" s="10">
+        <v>0.59375</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G66" s="6">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H66" s="1" t="str">
+        <v>1.2500000000582077</v>
+      </c>
+      <c r="H66" s="1">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>89.833333329941794</v>
       </c>
       <c r="I66" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.2500000000582077</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2963,14 +3003,14 @@
       <c r="A68" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="26" t="s">
+      <c r="C68" s="22"/>
+      <c r="D68" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="27"/>
+      <c r="E68" s="22"/>
       <c r="F68" s="18" t="s">
         <v>5</v>
       </c>
@@ -3459,14 +3499,14 @@
       <c r="A102" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="26" t="s">
+      <c r="B102" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="27"/>
-      <c r="D102" s="26" t="s">
+      <c r="C102" s="22"/>
+      <c r="D102" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="27"/>
+      <c r="E102" s="22"/>
       <c r="F102" s="18" t="s">
         <v>5</v>
       </c>
@@ -3964,6 +4004,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="H102:H103"/>
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="A34:A35"/>
@@ -3980,15 +4029,6 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
+++ b/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sapphirecarter/Documents/GitHub/italian_3200_project/documentation/booked_hours_individual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B4F636-2C49-A642-A444-ED80C6DE0A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5161492-10CC-3A43-B09B-6978A07472DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6220" yWindow="680" windowWidth="22580" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,14 +472,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -498,6 +490,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
@@ -936,36 +936,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="71" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="24" t="s">
         <v>6</v>
       </c>
     </row>
@@ -985,7 +985,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="20"/>
-      <c r="H3" s="27"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11">
@@ -1950,14 +1950,14 @@
       <c r="A34" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="21" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="22"/>
+      <c r="E34" s="27"/>
       <c r="F34" s="18" t="s">
         <v>5</v>
       </c>
@@ -2925,13 +2925,13 @@
         <v>10</v>
       </c>
       <c r="B65" s="4">
-        <v>43742</v>
+        <v>43743</v>
       </c>
       <c r="C65" s="10">
         <v>0.45833333333333331</v>
       </c>
       <c r="D65" s="7">
-        <v>43742</v>
+        <v>43743</v>
       </c>
       <c r="E65" s="10">
         <v>0.54166666666666663</v>
@@ -2957,13 +2957,13 @@
         <v>10</v>
       </c>
       <c r="B66" s="7">
-        <v>43742</v>
+        <v>43743</v>
       </c>
       <c r="C66" s="10">
         <v>0.54166666666666663</v>
       </c>
       <c r="D66" s="7">
-        <v>43742</v>
+        <v>43743</v>
       </c>
       <c r="E66" s="10">
         <v>0.59375</v>
@@ -3003,14 +3003,14 @@
       <c r="A68" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="21" t="s">
+      <c r="C68" s="27"/>
+      <c r="D68" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="22"/>
+      <c r="E68" s="27"/>
       <c r="F68" s="18" t="s">
         <v>5</v>
       </c>
@@ -3499,14 +3499,14 @@
       <c r="A102" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="22"/>
-      <c r="D102" s="21" t="s">
+      <c r="C102" s="27"/>
+      <c r="D102" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="22"/>
+      <c r="E102" s="27"/>
       <c r="F102" s="18" t="s">
         <v>5</v>
       </c>
@@ -4004,15 +4004,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="H102:H103"/>
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="A34:A35"/>
@@ -4029,6 +4020,15 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
+++ b/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sapphirecarter/Documents/GitHub/italian_3200_project/documentation/booked_hours_individual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5161492-10CC-3A43-B09B-6978A07472DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879E1293-BBB5-9245-A20F-DC161491F8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6220" yWindow="680" windowWidth="22580" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t>Wk</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Team meeting</t>
+  </si>
+  <si>
+    <t>Deployment</t>
   </si>
 </sst>
 </file>
@@ -472,6 +475,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -490,14 +501,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -918,7 +921,7 @@
   <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
@@ -936,36 +939,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="71" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -985,7 +988,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="20"/>
-      <c r="H3" s="25"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11">
@@ -1950,14 +1953,14 @@
       <c r="A34" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="26" t="s">
+      <c r="C34" s="22"/>
+      <c r="D34" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="27"/>
+      <c r="E34" s="22"/>
       <c r="F34" s="18" t="s">
         <v>5</v>
       </c>
@@ -2985,32 +2988,49 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="B67" s="4"/>
-      <c r="G67" s="6" t="str">
+      <c r="A67" s="1">
+        <v>11</v>
+      </c>
+      <c r="B67" s="4">
+        <v>43744</v>
+      </c>
+      <c r="C67" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="D67" s="4">
+        <v>43744</v>
+      </c>
+      <c r="E67" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G67" s="6">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H67" s="1" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="H67" s="1">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>91.333333329941794</v>
       </c>
       <c r="I67" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="16">
       <c r="A68" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="26" t="s">
+      <c r="C68" s="22"/>
+      <c r="D68" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="27"/>
+      <c r="E68" s="22"/>
       <c r="F68" s="18" t="s">
         <v>5</v>
       </c>
@@ -3048,17 +3068,35 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="G70" s="6" t="str">
+      <c r="A70" s="1">
+        <v>11</v>
+      </c>
+      <c r="B70" s="7">
+        <v>43745</v>
+      </c>
+      <c r="C70" s="10">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D70" s="7">
+        <v>43745</v>
+      </c>
+      <c r="E70" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G70" s="6">
         <f t="shared" ref="G70:G101" si="7">IF(I70&gt;0,I70,IF(I70=0, " ", "ERROR"))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H70" s="1" t="str">
+        <v>3.4999999998835847</v>
+      </c>
+      <c r="H70" s="1">
         <f>IF(AND(G70&lt;&gt;" ",G70&lt;&gt;"ERROR",H67&lt;&gt;" ", H67&lt;&gt;"ERROR"),G70+H67," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>94.833333329825379</v>
       </c>
       <c r="I70" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.4999999998835847</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3499,14 +3537,14 @@
       <c r="A102" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="26" t="s">
+      <c r="B102" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="27"/>
-      <c r="D102" s="26" t="s">
+      <c r="C102" s="22"/>
+      <c r="D102" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="27"/>
+      <c r="E102" s="22"/>
       <c r="F102" s="18" t="s">
         <v>5</v>
       </c>
@@ -4004,6 +4042,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="H102:H103"/>
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="A34:A35"/>
@@ -4020,15 +4067,6 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
+++ b/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sapphirecarter/Documents/GitHub/italian_3200_project/documentation/booked_hours_individual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879E1293-BBB5-9245-A20F-DC161491F8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A941CE-8D98-FB4B-ADE9-AA1E6F9DFB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6220" yWindow="680" windowWidth="22580" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
   <si>
     <t>Wk</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>Deployment</t>
+  </si>
+  <si>
+    <t>UI Changes</t>
+  </si>
+  <si>
+    <t>Team Meeting + Deployment</t>
   </si>
 </sst>
 </file>
@@ -475,14 +481,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -501,6 +499,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -920,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
@@ -929,7 +935,7 @@
     <col min="1" max="1" width="3.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="52.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
@@ -939,36 +945,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="71" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="24" t="s">
         <v>6</v>
       </c>
     </row>
@@ -988,7 +994,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="20"/>
-      <c r="H3" s="27"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11">
@@ -1953,14 +1959,14 @@
       <c r="A34" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="21" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="22"/>
+      <c r="E34" s="27"/>
       <c r="F34" s="18" t="s">
         <v>5</v>
       </c>
@@ -3023,14 +3029,14 @@
       <c r="A68" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="21" t="s">
+      <c r="C68" s="27"/>
+      <c r="D68" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="22"/>
+      <c r="E68" s="27"/>
       <c r="F68" s="18" t="s">
         <v>5</v>
       </c>
@@ -3100,45 +3106,99 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="G71" s="6" t="str">
+      <c r="A71" s="1">
+        <v>11</v>
+      </c>
+      <c r="B71" s="7">
+        <v>43749</v>
+      </c>
+      <c r="C71" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="D71" s="7">
+        <v>43749</v>
+      </c>
+      <c r="E71" s="10">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" s="6">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H71" s="1" t="str">
+        <v>2.0000000000582077</v>
+      </c>
+      <c r="H71" s="1">
         <f t="shared" ref="H71:H101" si="8">IF(AND(G71&lt;&gt;" ",G71&lt;&gt;"ERROR",H70&lt;&gt;" ", H70&lt;&gt;"ERROR"),G71+H70," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>96.833333329883587</v>
       </c>
       <c r="I71" s="1">
         <f t="shared" ref="I71:I104" si="9">((D71+E71)-(B71+C71))*24</f>
-        <v>0</v>
+        <v>2.0000000000582077</v>
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="G72" s="6" t="str">
+      <c r="A72" s="1">
+        <v>11</v>
+      </c>
+      <c r="B72" s="7">
+        <v>43750</v>
+      </c>
+      <c r="C72" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D72" s="7">
+        <v>43750</v>
+      </c>
+      <c r="E72" s="10">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G72" s="6">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H72" s="1" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="H72" s="1">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v>98.333333329883587</v>
       </c>
       <c r="I72" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="G73" s="6" t="str">
+      <c r="A73" s="1">
+        <v>11</v>
+      </c>
+      <c r="B73" s="7">
+        <v>43750</v>
+      </c>
+      <c r="C73" s="10">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D73" s="7">
+        <v>43750</v>
+      </c>
+      <c r="E73" s="10">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G73" s="6">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H73" s="1" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="H73" s="1">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v>99.833333329883587</v>
       </c>
       <c r="I73" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3537,14 +3597,14 @@
       <c r="A102" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="22"/>
-      <c r="D102" s="21" t="s">
+      <c r="C102" s="27"/>
+      <c r="D102" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="22"/>
+      <c r="E102" s="27"/>
       <c r="F102" s="18" t="s">
         <v>5</v>
       </c>
@@ -4042,15 +4102,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="H102:H103"/>
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="A34:A35"/>
@@ -4067,6 +4118,15 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
+++ b/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sapphirecarter/Documents/GitHub/italian_3200_project/documentation/booked_hours_individual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A941CE-8D98-FB4B-ADE9-AA1E6F9DFB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F30C46E-DB6E-6149-B236-BBCF5BD158A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6220" yWindow="680" windowWidth="22580" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>Wk</t>
   </si>
@@ -481,6 +481,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -499,14 +507,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -927,7 +927,7 @@
   <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
@@ -945,36 +945,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="71" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="20"/>
-      <c r="H3" s="25"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11">
@@ -1959,14 +1959,14 @@
       <c r="A34" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="26" t="s">
+      <c r="C34" s="22"/>
+      <c r="D34" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="27"/>
+      <c r="E34" s="22"/>
       <c r="F34" s="18" t="s">
         <v>5</v>
       </c>
@@ -3029,14 +3029,14 @@
       <c r="A68" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="26" t="s">
+      <c r="C68" s="22"/>
+      <c r="D68" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="27"/>
+      <c r="E68" s="22"/>
       <c r="F68" s="18" t="s">
         <v>5</v>
       </c>
@@ -3202,17 +3202,35 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="G74" s="6" t="str">
+      <c r="A74" s="1">
+        <v>11</v>
+      </c>
+      <c r="B74" s="7">
+        <v>43750</v>
+      </c>
+      <c r="C74" s="10">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D74" s="7">
+        <v>43750</v>
+      </c>
+      <c r="E74" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G74" s="6">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H74" s="1" t="str">
+        <v>1.9999999998835847</v>
+      </c>
+      <c r="H74" s="1">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v>101.83333332976717</v>
       </c>
       <c r="I74" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.9999999998835847</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3597,14 +3615,14 @@
       <c r="A102" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="26" t="s">
+      <c r="B102" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="27"/>
-      <c r="D102" s="26" t="s">
+      <c r="C102" s="22"/>
+      <c r="D102" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="27"/>
+      <c r="E102" s="22"/>
       <c r="F102" s="18" t="s">
         <v>5</v>
       </c>
@@ -4102,6 +4120,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="H102:H103"/>
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="A34:A35"/>
@@ -4118,15 +4145,6 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
+++ b/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sapphirecarter/Documents/GitHub/italian_3200_project/documentation/booked_hours_individual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F30C46E-DB6E-6149-B236-BBCF5BD158A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E579366D-CC2D-8548-A421-CA7D1CF37DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6220" yWindow="680" windowWidth="22580" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
   <si>
     <t>Wk</t>
   </si>
@@ -481,14 +481,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -507,6 +499,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -927,7 +927,7 @@
   <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
@@ -945,36 +945,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="71" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="24" t="s">
         <v>6</v>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="20"/>
-      <c r="H3" s="27"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11">
@@ -1959,14 +1959,14 @@
       <c r="A34" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="21" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="22"/>
+      <c r="E34" s="27"/>
       <c r="F34" s="18" t="s">
         <v>5</v>
       </c>
@@ -3029,14 +3029,14 @@
       <c r="A68" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="21" t="s">
+      <c r="C68" s="27"/>
+      <c r="D68" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="22"/>
+      <c r="E68" s="27"/>
       <c r="F68" s="18" t="s">
         <v>5</v>
       </c>
@@ -3234,17 +3234,35 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="G75" s="6" t="str">
+      <c r="A75" s="1">
+        <v>11</v>
+      </c>
+      <c r="B75" s="7">
+        <v>43751</v>
+      </c>
+      <c r="C75" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D75" s="7">
+        <v>43751</v>
+      </c>
+      <c r="E75" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G75" s="6">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H75" s="1" t="str">
+        <v>1.9999999998835847</v>
+      </c>
+      <c r="H75" s="1">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v>103.83333332965076</v>
       </c>
       <c r="I75" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.9999999998835847</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3615,14 +3633,14 @@
       <c r="A102" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="22"/>
-      <c r="D102" s="21" t="s">
+      <c r="C102" s="27"/>
+      <c r="D102" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="22"/>
+      <c r="E102" s="27"/>
       <c r="F102" s="18" t="s">
         <v>5</v>
       </c>
@@ -4120,15 +4138,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="H102:H103"/>
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="A34:A35"/>
@@ -4145,6 +4154,15 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
+++ b/documentation/booked_hours_individual/Booked_Hours_Sapphire_Carter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sapphirecarter/Documents/GitHub/italian_3200_project/documentation/booked_hours_individual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E579366D-CC2D-8548-A421-CA7D1CF37DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C88510-D401-184B-A831-5AC23BEC8EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6220" yWindow="680" windowWidth="22580" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
   <si>
     <t>Wk</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>Team Meeting + Deployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI Changes </t>
+  </si>
+  <si>
+    <t>Fix sending to database multiple times</t>
+  </si>
+  <si>
+    <t>Final code</t>
   </si>
 </sst>
 </file>
@@ -927,7 +936,7 @@
   <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
@@ -3266,45 +3275,99 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="G76" s="6" t="str">
+      <c r="A76" s="1">
+        <v>12</v>
+      </c>
+      <c r="B76" s="7">
+        <v>43752</v>
+      </c>
+      <c r="C76" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D76" s="7">
+        <v>43752</v>
+      </c>
+      <c r="E76" s="10">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G76" s="6">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H76" s="1" t="str">
+        <v>3</v>
+      </c>
+      <c r="H76" s="1">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v>106.83333332965076</v>
       </c>
       <c r="I76" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="G77" s="6" t="str">
+      <c r="A77" s="1">
+        <v>12</v>
+      </c>
+      <c r="B77" s="7">
+        <v>43753</v>
+      </c>
+      <c r="C77" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D77" s="7">
+        <v>43753</v>
+      </c>
+      <c r="E77" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G77" s="6">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H77" s="1" t="str">
+        <v>2.0000000000582077</v>
+      </c>
+      <c r="H77" s="1">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v>108.83333332970896</v>
       </c>
       <c r="I77" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.0000000000582077</v>
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="G78" s="6" t="str">
+      <c r="A78" s="1">
+        <v>12</v>
+      </c>
+      <c r="B78" s="7">
+        <v>43753</v>
+      </c>
+      <c r="C78" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="D78" s="7">
+        <v>43753</v>
+      </c>
+      <c r="E78" s="10">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G78" s="6">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H78" s="1" t="str">
+        <v>0.50000000005820766</v>
+      </c>
+      <c r="H78" s="1">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
+        <v>109.33333332976717</v>
       </c>
       <c r="I78" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.50000000005820766</v>
       </c>
     </row>
     <row r="79" spans="1:9">
